--- a/books.xlsx
+++ b/books.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="5">
   <si>
     <t>Id</t>
   </si>
@@ -92,7 +92,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:E3"/>
+  <dimension ref="A1:E8"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -146,6 +146,76 @@
         <v>12.0</v>
       </c>
     </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="B4" t="s">
+        <v>4</v>
+      </c>
+      <c r="C4" t="n" s="2">
+        <v>1000.0</v>
+      </c>
+      <c r="D4" t="n">
+        <v>12.0</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>4.0</v>
+      </c>
+      <c r="B5" t="s">
+        <v>4</v>
+      </c>
+      <c r="C5" t="n" s="2">
+        <v>1000.0</v>
+      </c>
+      <c r="D5" t="n">
+        <v>12.0</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="B6" t="s">
+        <v>4</v>
+      </c>
+      <c r="C6" t="n" s="2">
+        <v>1000.0</v>
+      </c>
+      <c r="D6" t="n">
+        <v>12.0</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="n">
+        <v>6.0</v>
+      </c>
+      <c r="B7" t="s">
+        <v>4</v>
+      </c>
+      <c r="C7" t="n" s="2">
+        <v>1000.0</v>
+      </c>
+      <c r="D7" t="n">
+        <v>12.0</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="n">
+        <v>7.0</v>
+      </c>
+      <c r="B8" t="s">
+        <v>4</v>
+      </c>
+      <c r="C8" t="n" s="2">
+        <v>1000.0</v>
+      </c>
+      <c r="D8" t="n">
+        <v>12.0</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>

--- a/books.xlsx
+++ b/books.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="7">
   <si>
     <t>Id</t>
   </si>
@@ -27,6 +27,12 @@
   </si>
   <si>
     <t>admin</t>
+  </si>
+  <si>
+    <t>Sach hay</t>
+  </si>
+  <si>
+    <t>New</t>
   </si>
 </sst>
 </file>
@@ -92,14 +98,14 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:E8"/>
+  <dimension ref="A1:E15"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
     <col min="1" max="1" width="3.94140625" customWidth="true" bestFit="true"/>
-    <col min="2" max="2" width="6.89453125" customWidth="true" bestFit="true"/>
+    <col min="2" max="2" width="8.890625" customWidth="true" bestFit="true"/>
     <col min="3" max="3" width="7.51171875" customWidth="true" bestFit="true"/>
     <col min="4" max="4" width="12.03125" customWidth="true" bestFit="true"/>
   </cols>
@@ -216,6 +222,104 @@
         <v>12.0</v>
       </c>
     </row>
+    <row r="9">
+      <c r="A9" t="n">
+        <v>8.0</v>
+      </c>
+      <c r="B9" t="s">
+        <v>5</v>
+      </c>
+      <c r="C9" t="n" s="2">
+        <v>1000.0</v>
+      </c>
+      <c r="D9" t="n">
+        <v>7.0</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="n">
+        <v>9.0</v>
+      </c>
+      <c r="B10" t="s">
+        <v>5</v>
+      </c>
+      <c r="C10" t="n" s="2">
+        <v>1000.0</v>
+      </c>
+      <c r="D10" t="n">
+        <v>7.0</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="n">
+        <v>10.0</v>
+      </c>
+      <c r="B11" t="s">
+        <v>6</v>
+      </c>
+      <c r="C11" t="n" s="2">
+        <v>1000.0</v>
+      </c>
+      <c r="D11" t="n">
+        <v>12.0</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="n">
+        <v>11.0</v>
+      </c>
+      <c r="B12" t="s">
+        <v>6</v>
+      </c>
+      <c r="C12" t="n" s="2">
+        <v>1000.0</v>
+      </c>
+      <c r="D12" t="n">
+        <v>12.0</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="n">
+        <v>12.0</v>
+      </c>
+      <c r="B13" t="s">
+        <v>6</v>
+      </c>
+      <c r="C13" t="n" s="2">
+        <v>1000.0</v>
+      </c>
+      <c r="D13" t="n">
+        <v>12.0</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="n">
+        <v>13.0</v>
+      </c>
+      <c r="B14" t="s">
+        <v>4</v>
+      </c>
+      <c r="C14" t="n" s="2">
+        <v>1000.0</v>
+      </c>
+      <c r="D14" t="n">
+        <v>12.0</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="n">
+        <v>14.0</v>
+      </c>
+      <c r="B15" t="s">
+        <v>4</v>
+      </c>
+      <c r="C15" t="n" s="2">
+        <v>1000.0</v>
+      </c>
+      <c r="D15" t="n">
+        <v>12.0</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
